--- a/medicine/Sexualité et sexologie/Christophe_Siébert/Christophe_Siébert.xlsx
+++ b/medicine/Sexualité et sexologie/Christophe_Siébert/Christophe_Siébert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_Si%C3%A9bert</t>
+          <t>Christophe_Siébert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe Siébert, né le 11 octobre 1974[1] à Millau[2],[3], est un romancier et poète français.
-Son œuvre, influencée par le roman noir et souvent qualifiée d'« underground[4] » ou d' « alternative », propose un réalisme critique et une forme de naturalisme social qui mêle horreur, pornographie et violence de type gore[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Siébert, né le 11 octobre 1974 à Millau est un romancier et poète français.
+Son œuvre, influencée par le roman noir et souvent qualifiée d'« underground » ou d' « alternative », propose un réalisme critique et une forme de naturalisme social qui mêle horreur, pornographie et violence de type gore.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_Si%C3%A9bert</t>
+          <t>Christophe_Siébert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Christophe Siébert fonde, en 1998, le collectif « konsstrukt » qui réunit des écrivains, plasticiens et musiciens.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_Si%C3%A9bert</t>
+          <t>Christophe_Siébert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,42 +567,183 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-J'ai peur, La Musardine,  2007[6],[7]
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J'ai peur, La Musardine,  2007,
 Le Valet, La Musardine, coll. « Média 1000 », 2009
-Le Mange-femme, La Musardine, coll. « Média 1000 », 2009[8]
+Le Mange-femme, La Musardine, coll. « Média 1000 », 2009
 Chaudasse !, La Musardine, coll. « Média 1000 », 2010
 Détournement, La Musardine, coll. « Média 1000 », 2011
-Docile, La Musardine, coll. « Média 1000 », 2011[9]
+Docile, La Musardine, coll. « Média 1000 », 2011
 Mi-pute mi-soumise, La Musardine, coll. « Média 1000 », 2011
-Nuit noire, éd. Rivière blanche, 2011[10], rééd. Trash Éditions, 2014 (épuisé)
-Sexe connexion, éd. Numériklivres, 2012[11],[12],[13] (épuisé)
+Nuit noire, éd. Rivière blanche, 2011, rééd. Trash Éditions, 2014 (épuisé)
+Sexe connexion, éd. Numériklivres, 2012 (épuisé)
 Holocauste, éd. Numériklivres, 2013, réed. Rivière blanche, 2016
 La Place du mort, Camion Noir, 2014 (épuisé), réed. OVNI Editions, 2017 (épuisé)
 Paranoïa, Trash Éditions, 2016 (épuisé)
 La Trilogie de la crasse, Batro Games, 2018
-Métaphysique de la viande, Au diable vauvert, 2019 (Prix Sade 2019)
-Cycles de Mertvecgorod
-Images de la fin du monde (Chroniques de Mertvecgorod, I), Au diable vauvert, 2020 (finaliste du Grand Prix de l'Imaginaire et du Prix Rosny aîné)
+Métaphysique de la viande, Au diable vauvert, 2019 (Prix Sade 2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cycles de Mertvecgorod</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Images de la fin du monde (Chroniques de Mertvecgorod, I), Au diable vauvert, 2020 (finaliste du Grand Prix de l'Imaginaire et du Prix Rosny aîné)
 Feminicid (Chroniques de Mertvecgorod, II), Au diable vauvert, 2021 (finaliste du Grand Prix de l'Imaginaire)
 Valentina (Un demi-siècle de merde, I), Au diable vauvert, 2023
 Hram (Hors-série), Gore des Alpes, 2023
 Vive le feu (Hors-série), Zone 52, collection « Karnage », 2023
-Volna (Après le black-out, I), Mu, 2023
-Nouvelles et recueils de nouvelles
-Porcherie, éd. kstrkt, 2013 (épuisé)
+Volna (Après le black-out, I), Mu, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles et recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Porcherie, éd. kstrkt, 2013 (épuisé)
 Papi jute dans la sauce aux câpres, éd. La Belle époque, coll. « Or », 2015
 Je n'avais pas envie de mourir, éd. La Belle époque, coll. « La belle vie », 2016
 Porcherie volume 1 (recueil), Les Crocs Electriques, 2017 (épuisé)
 Porcherie volume 2 (recueil), Les Crocs Electriques, 2017 (épuisé)
 Porcherie volume 3 (recueil), Les Crocs Electriques, 2017 (épuisé)
-Porcherie volume 4 (recueil), Les Crocs Electriques, 2018 (épuisé)
-Poésie
-Poésie portable, éd. Gros Texte, 2013[14],[15],[16]
+Porcherie volume 4 (recueil), Les Crocs Electriques, 2018 (épuisé)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Poésie portable, éd. Gros Texte, 2013
 Découper l'univers..., éd. Gros Texte, 2015
-Une vie normale, Le dernier cri, 2019
-Participations à des ouvrages collectifs
-Raison basse, éditions Caméras Animales, 2009
+Une vie normale, Le dernier cri, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Participations à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Raison basse, éditions Caméras Animales, 2009
 Métaphysique d'autolyse, éditions Tinam S., 2013
 Dimension Trash, éditions Rivière blanche, 2015
 Dimension Violences, éditions Rivière blanche, 2018
@@ -596,45 +751,149 @@
 Les Liens du groupe sanguin et autres nouvelles du prix Hemingway, Au diable vauvert, 2021
 Nos plus beaux effets gore, éditions Faute de frappe, 2023
 Le Futur de la cité, anthologie des Imaginales, Au diable vauvert, 2023
-Les Contes rouges (Charogne), Les Artistes fous associés, 2023
-Livre audio
-Holocauste, lecture par l'auteur, Kakakids Records, 2013
-Porcherie, lecture par l'auteur, autoproduction, 2013 (épuisé)
-Scénario
-L'enfant dissocié, scénario pour le jeu de rôle Mantra, Batro'Games, 2016
-Revues et divers
-Christophe Siébert a publié des nouvelles et poèmes dans de nombreuses revues dont, entre autres, Chimères, Les États civils, Freak Wave, Mauvaise graine, Le Livre à disparaître, La Vérité débraillée, Madame, Banzaï, Le Bateau, Bad to the bone, etc. Certains textes sont également parus sous forme de feuilletons à épisodes dans L'Angoisse. Il a sporadiquement travaillé comme chroniqueur pour des magazine en ligne, tels que Les Plus Belles Plumes, ou des sites, tels que le blog de La Musardine.
+Les Contes rouges (Charogne), Les Artistes fous associés, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livre audio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Holocauste, lecture par l'auteur, Kakakids Records, 2013
+Porcherie, lecture par l'auteur, autoproduction, 2013 (épuisé)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'enfant dissocié, scénario pour le jeu de rôle Mantra, Batro'Games, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Revues et divers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Siébert a publié des nouvelles et poèmes dans de nombreuses revues dont, entre autres, Chimères, Les États civils, Freak Wave, Mauvaise graine, Le Livre à disparaître, La Vérité débraillée, Madame, Banzaï, Le Bateau, Bad to the bone, etc. Certains textes sont également parus sous forme de feuilletons à épisodes dans L'Angoisse. Il a sporadiquement travaillé comme chroniqueur pour des magazine en ligne, tels que Les Plus Belles Plumes, ou des sites, tels que le blog de La Musardine.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christophe_Si%C3%A9bert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christophe_Siébert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_Si%C3%A9bert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Sade 2019 (ex-æquo avec Kevin Lambert) pour Métaphysique de la viande (Au diable vauvert)[17]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prix Sade 2019 (ex-æquo avec Kevin Lambert) pour Métaphysique de la viande (Au diable vauvert)
 Finaliste du Grand Prix de l'Imaginaire et du Prix Rosny aîné 2020 pour Images de la fin du monde (Au diable vauvert)
 Finaliste du Grand Prix de l'Imaginaire 2021 pour Feminicid (Au diable vauvert)</t>
         </is>
